--- a/celticcities.xlsx
+++ b/celticcities.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GeoVis\leaflet-lab\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>City</t>
   </si>
@@ -67,12 +62,15 @@
   </si>
   <si>
     <t>Nantes</t>
+  </si>
+  <si>
+    <t>Celtic Language Speakers Today</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -881,7 +879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -889,18 +887,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,8 +924,11 @@
       <c r="H1" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -952,7 +954,7 @@
         <v>495000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -978,7 +980,7 @@
         <v>75530</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1004,15 +1006,15 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -1030,7 +1032,7 @@
         <v>276000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>25347</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>629000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1110,7 @@
         <v>449000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>212000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>239000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +1214,7 @@
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1263,8 +1265,11 @@
       <c r="H14">
         <v>207000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1289,8 +1294,11 @@
       <c r="H15">
         <v>150000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1314,6 +1322,9 @@
       </c>
       <c r="H16">
         <v>270000</v>
+      </c>
+      <c r="I16">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
